--- a/branch.xlsx
+++ b/branch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23895" windowHeight="9735"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,6 +550,11 @@
       </c>
       <c r="E6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/branch.xlsx
+++ b/branch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23895" windowHeight="9735"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,6 +550,11 @@
       </c>
       <c r="E6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/branch.xlsx
+++ b/branch.xlsx
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -555,6 +555,11 @@
     <row r="10" spans="1:5">
       <c r="A10">
         <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
